--- a/487-Image_Linear_Filtering_and_Edge_Detection/Data sheet.xlsx
+++ b/487-Image_Linear_Filtering_and_Edge_Detection/Data sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecon\source\repos\josephelan\Image-Editor-Smooth_EdgeDet\487-Image_Linear_Filtering_and_Edge_Detection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecon\source\repos\487-Image_Linear_Filtering_and_Edge_Detection\487-Image_Linear_Filtering_and_Edge_Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7461659-C5CC-4DB6-BF11-D74472E5DCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15E0A04-5C9E-44A8-A38F-4EC4FBAD3D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36B66D98-AC54-492D-96CE-482503CA24AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{36B66D98-AC54-492D-96CE-482503CA24AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -663,13 +663,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D8C82D-7B58-4B5B-ABEC-FC92D78F0533}">
   <dimension ref="B5:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5">
         <v>0</v>
       </c>
@@ -698,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>0</v>
       </c>
@@ -730,7 +730,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -762,7 +762,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
@@ -794,7 +794,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9">
         <v>3</v>
       </c>
@@ -841,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>4</v>
       </c>
@@ -891,7 +891,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>5</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>6</v>
       </c>
@@ -991,7 +991,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>7</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14">
         <v>8</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I16">
         <v>2</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -1150,12 +1150,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1023</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="I18" s="2">
         <f>D18-I16</f>
-        <v>1</v>
+        <v>1021</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="L18" s="2">
         <f>D18-L16</f>
-        <v>2</v>
+        <v>1022</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="O18" s="2">
         <f>D18-O16</f>
-        <v>3</v>
+        <v>1023</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="R18" s="2">
         <f>D18-R16</f>
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -1202,10 +1202,10 @@
       </c>
       <c r="U18" s="3">
         <f>D18-U16</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C20" t="s">
         <v>5</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I21" s="2">
         <f>D18-I16</f>
-        <v>1</v>
+        <v>1021</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="L21" s="2">
         <f>D18-L16</f>
-        <v>2</v>
+        <v>1022</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O21" s="2">
         <f>D18-O16</f>
-        <v>3</v>
+        <v>1023</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="R21" s="2">
         <f>D18-R16</f>
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2">
@@ -1321,10 +1321,10 @@
       </c>
       <c r="U21" s="3">
         <f>D18-U16</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C22" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="3"/>
     </row>
-    <row r="23" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H23" s="17">
         <v>2</v>
       </c>
@@ -1382,7 +1382,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="C24">
+        <f>0-H18</f>
+        <v>2</v>
+      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -1392,7 +1396,7 @@
       </c>
       <c r="I24" s="2">
         <f>D18-I16</f>
-        <v>1</v>
+        <v>1021</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
@@ -1401,7 +1405,7 @@
       </c>
       <c r="L24" s="2">
         <f>D18-L16</f>
-        <v>2</v>
+        <v>1022</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2">
@@ -1410,7 +1414,7 @@
       </c>
       <c r="O24" s="2">
         <f>D18-O16</f>
-        <v>3</v>
+        <v>1023</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2">
@@ -1419,7 +1423,7 @@
       </c>
       <c r="R24" s="2">
         <f>D18-R16</f>
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2">
@@ -1428,10 +1432,10 @@
       </c>
       <c r="U24" s="3">
         <f>D18-U16</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H25" s="1"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1447,7 +1451,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="3"/>
     </row>
-    <row r="26" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H26" s="17">
         <v>3</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.45">
       <c r="F27">
         <v>-1</v>
       </c>
@@ -1493,7 +1497,7 @@
       </c>
       <c r="I27" s="2">
         <f>D18-I16</f>
-        <v>1</v>
+        <v>1021</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
@@ -1502,7 +1506,7 @@
       </c>
       <c r="L27" s="2">
         <f>D18-L16</f>
-        <v>2</v>
+        <v>1022</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2">
@@ -1511,7 +1515,7 @@
       </c>
       <c r="O27" s="2">
         <f>D18-O16</f>
-        <v>3</v>
+        <v>1023</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2">
@@ -1520,7 +1524,7 @@
       </c>
       <c r="R27" s="2">
         <f>D18-R16</f>
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2">
@@ -1529,10 +1533,10 @@
       </c>
       <c r="U27" s="3">
         <f>D18-U16</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H28" s="1"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1548,7 +1552,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="3"/>
     </row>
-    <row r="29" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H29" s="17">
         <v>4</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.45">
       <c r="F30">
         <v>-2</v>
       </c>
@@ -1594,7 +1598,7 @@
       </c>
       <c r="I30" s="2">
         <f>D18-I16</f>
-        <v>1</v>
+        <v>1021</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2">
@@ -1603,7 +1607,7 @@
       </c>
       <c r="L30" s="2">
         <f>D18-L16</f>
-        <v>2</v>
+        <v>1022</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2">
@@ -1612,7 +1616,7 @@
       </c>
       <c r="O30" s="2">
         <f>D18-O16</f>
-        <v>3</v>
+        <v>1023</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2">
@@ -1621,7 +1625,7 @@
       </c>
       <c r="R30" s="2">
         <f>D18-R16</f>
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2">
@@ -1630,10 +1634,10 @@
       </c>
       <c r="U30" s="3">
         <f>D18-U16</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G31" s="2"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
@@ -1651,7 +1655,7 @@
       <c r="U31" s="6"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:22" x14ac:dyDescent="0.45">
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1669,7 +1673,7 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:22" x14ac:dyDescent="0.45">
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1687,7 +1691,7 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:22" x14ac:dyDescent="0.45">
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
